--- a/PRESUPUESTO ANUAL/Presupuesto Cooperadora/Presupuesto cooperadora.xlsx
+++ b/PRESUPUESTO ANUAL/Presupuesto Cooperadora/Presupuesto cooperadora.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Tipo de Material</t>
   </si>
@@ -34,11 +34,11 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Motor Paso a Paso nema 32</t>
+    <t xml:space="preserve">Motor Paso a Paso nema 34</t>
   </si>
   <si>
     <t xml:space="preserve">
-$102.950,00</t>
+$140.950</t>
   </si>
   <si>
     <t xml:space="preserve">Microstep Driver DM556</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Display lcd 16x2</t>
   </si>
   <si>
-    <t xml:space="preserve">Boton pulsador switch negro</t>
+    <t xml:space="preserve">Botón pulsador switch negro</t>
   </si>
   <si>
     <t xml:space="preserve">Sensor de Velocidad </t>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bornera 2 pines paso a paso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esp32 wifi+bluetooth</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00;[RED]\([$$-2C0A]#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,12 +110,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -162,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,10 +182,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -284,10 +277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -297,7 +290,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,7 +319,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>349563</v>
+        <v>397963</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,7 +329,7 @@
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="6" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -347,7 +340,7 @@
       <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="6" t="n">
         <v>89000</v>
       </c>
     </row>
@@ -355,10 +348,10 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="n">
+      <c r="B5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>6000</v>
       </c>
     </row>
@@ -366,10 +359,10 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="8" t="n">
         <v>1300</v>
       </c>
     </row>
@@ -377,10 +370,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="n">
+      <c r="B7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>4599</v>
       </c>
     </row>
@@ -388,10 +381,10 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="8" t="n">
         <v>15476</v>
       </c>
     </row>
@@ -399,21 +392,21 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>26000</v>
+      <c r="B9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="n">
+      <c r="B10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="n">
         <v>8159</v>
       </c>
     </row>
@@ -421,15 +414,26 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="n">
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="n">
         <v>6079</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="10"/>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>11399</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
